--- a/data/long_bre/P24_6-Estudios-long_bre.xlsx
+++ b/data/long_bre/P24_6-Estudios-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>-9,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,56</t>
+          <t>-8,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-14,08%</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,66%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-27,82%</t>
+          <t>-35,6%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-15,31%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-23,68%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25,76%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 6,18</t>
+          <t>-21,79; 2,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 8,1</t>
+          <t>-12,88; 8,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,62; -0,07</t>
+          <t>-21,37; 1,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-48,17; 31,51</t>
+          <t>-5,28; 13,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-38,62; 51,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-52,24; -0,29</t>
+          <t>-63,77; 12,73</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-49,57; 71,75</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-48,44; 6,2</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-27,2; 111,94</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,48</t>
+          <t>16,47</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,63</t>
+          <t>11,38</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>13,84</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,25%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>36,33%</t>
+          <t>16,2%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>49,93%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>30,54%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>36,61%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 14,92</t>
+          <t>-11,13; 23,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 26,93</t>
+          <t>1,37; 29,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,52; 23,86</t>
+          <t>1,93; 21,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 39,86</t>
+          <t>0,0; 30,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 91,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,73; 75,17</t>
+          <t>-21,4; 70,18</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4,84; 121,53</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4,71; 69,54</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 128,39</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-12,76</t>
+          <t>-13,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>-18,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-29,58%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,48%</t>
+          <t>8,82%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-28,57%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-11,2%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-39,8%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 11,97</t>
+          <t>-11,91; 16,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-29,52; 0,62</t>
+          <t>-33,36; -0,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 4,8</t>
+          <t>-11,66; 5,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,04; 58,02</t>
+          <t>-40,34; -4,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,01; 1,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-38,67; 21,45</t>
+          <t>-32,83; 67,66</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-54,19; -0,31</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-34,75; 25,8</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-64,21; -11,25</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 7,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 6,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 7,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,92; 29,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 36,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 33,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,15%</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>15,2%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-7,24%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,54%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8,54%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 6,88</t>
+          <t>-5,39; 11,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 10,57</t>
+          <t>-9,73; 5,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 8,97</t>
+          <t>-4,89; 7,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 16,09</t>
+          <t>-5,71; 9,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 26,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 22,76</t>
+          <t>-17,91; 52,75</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-32,52; 26,3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-16,06; 33,62</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-19,12; 44,61</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-11,61%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-13,57%</t>
+          <t>-8,06%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5,37%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8,65%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6,88%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 6,18</t>
+          <t>-13,19; 5,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 2,43</t>
+          <t>-5,8; 10,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 1,61</t>
+          <t>-3,18; 11,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 33,28</t>
+          <t>-5,79; 11,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,86; 8,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,78; 6,1</t>
+          <t>-24,53; 13,31</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-12,04; 25,36</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-6,65; 28,53</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-13,19; 33,86</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,79</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>29,7%</t>
+          <t>-4,85</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>0,27%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-2,02%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-17,11%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-13,62%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 15,4</t>
+          <t>-7,15; 7,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 9,01</t>
+          <t>-8,16; 6,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 8,59</t>
+          <t>-11,72; 0,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 69,22</t>
+          <t>-14,45; 2,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-22,22; 42,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 35,96</t>
+          <t>-25,08; 38,27</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-22,81; 26,31</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-33,37; 2,79</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-36,41; 9,59</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-13,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-26,8%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,32; -5,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 11,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 11,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,18; -11,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 34,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 34,42</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-5,76</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-6,02</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>26,39%</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-16,12%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-16,57%</t>
+          <t>8,47%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,92%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>8,65%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-16,83%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 12,87</t>
+          <t>-7,02; 12,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 2,73</t>
+          <t>-8,03; 8,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 1,19</t>
+          <t>-3,91; 9,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 71,95</t>
+          <t>-14,63; 2,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-32,15; 8,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-32,92; 3,3</t>
+          <t>-19,6; 52,85</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-25,18; 39,62</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-13,24; 38,95</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-36,52; 9,05</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-6,4</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-2,01%</t>
+          <t>-14,84%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>11,57%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>10,31%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>11,35%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 6,5</t>
+          <t>-16,22; 2,51</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 5,09</t>
+          <t>-4,1; 13,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 3,56</t>
+          <t>-3,89; 10,19</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 24,95</t>
+          <t>-4,15; 12,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 25,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 13,47</t>
+          <t>-32,65; 7,0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-9,12; 37,29</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-9,51; 31,69</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-9,97; 40,08</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>-4,79</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>-6,1</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-7,95%</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>14,34%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-14,14%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-16,76%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 0,63</t>
+          <t>-5,16; 12,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,74; 10,58</t>
+          <t>-13,9; 3,22</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,0; 10,13</t>
+          <t>-13,76; 0,66</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 1,4</t>
+          <t>-5,69; 9,29</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,57; 27,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,46; 27,59</t>
+          <t>-15,98; 55,56</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-35,39; 11,25</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-33,9; 2,12</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-17,32; 40,03</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-6,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-4,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-17,11%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-14,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,1008 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 6,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-11,03; -1,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-9,23; -0,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 29,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-28,08; -3,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-26,86; -3,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-1,21</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>7,42</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-3,9%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>43,39%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-9,53; 6,49</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 15,82</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-27,42; 25,27</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-8,12; 118,38</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-1,99</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-4,07%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-9,78; 6,18</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-9,96; 12,98</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-18,19; 13,72</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-19,96; 33,41</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-8,28</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>15,79%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-22,42%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 8,97</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-21,2; 2,5</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-13,39; 53,74</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-47,53; 8,49</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>-0,61%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>-1,44%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>-4,95; 4,69</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 4,25</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>-4,52; 3,79</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>-5,5; 4,54</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-15,65; 17,98</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-16,32; 20,52</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-14,73; 14,79</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>-18,73; 19,23</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>-2,69</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>4,62</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>5,31</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>5,83</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-5,69%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>11,03%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>13,46%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>15,14%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-7,95; 2,07</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 9,62</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>0,66; 9,78</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 11,97</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-15,79; 4,72</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 24,94</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>1,42; 26,2</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 34,01</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>-4,88</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>-5,13</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>-5,44</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>-13,95%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>-15,92%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>-15,61%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 6,86</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>-9,83; -0,47</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>-9,37; -1,09</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>-12,59; 0,17</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-4,64; 31,82</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-25,92; -1,38</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-27,1; -3,83</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>-31,61; 0,69</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P24_6-Estudios-long_bre.xlsx
+++ b/data/long_bre/P24_6-Estudios-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -742,7 +742,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -844,7 +844,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -950,7 +950,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1052,7 +1052,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1154,7 +1154,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1362,7 +1362,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1464,7 +1464,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1672,7 +1672,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1774,7 +1774,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
